--- a/server/public/Excel/DED.xlsx
+++ b/server/public/Excel/DED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treekasem\Desktop\ExcelToDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA8C69A-BA2C-4530-B197-B61386DD1F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6818580-9BFB-48A9-8973-2942E8E6563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DED" sheetId="1" r:id="rId1"/>
@@ -37,104 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
-  <si>
-    <t>รหัสพนักงาน</t>
-  </si>
-  <si>
-    <t>ชื่อ(ภาษาไทย)-สกุล</t>
-  </si>
-  <si>
-    <t>ชื่อ(ภาษาอังกฤษ) -สกุล</t>
-  </si>
-  <si>
-    <t>นามสกุล(ภาษาอังกฤษ)</t>
-  </si>
-  <si>
-    <t>ชื่อเล่น</t>
-  </si>
-  <si>
-    <t>เบอร์โทรศัพท์</t>
-  </si>
-  <si>
-    <t>สายงาน</t>
-  </si>
-  <si>
-    <t>แผนก</t>
-  </si>
-  <si>
-    <t>ตำแหน่ง</t>
-  </si>
-  <si>
-    <t>วันที่เข้างาน</t>
-  </si>
-  <si>
-    <t>Address E-mail</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">รหัสผ่าน(ที่จะเข้าเว็บ hr_center)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t>*ไม่ใช่รหัสผ่านของ Address E-mail</t>
-    </r>
-  </si>
-  <si>
-    <t>รูปพนักงาน</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงาน
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t>(รายวัน,รายเดือน,ผู้อำนวยการ,ผู้จัดการ,ผู้ช่วยผู้จัดการ)</t>
-    </r>
-  </si>
-  <si>
-    <t>เลขสแกนนิ้ว</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">สถานะการทำงาน
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Angsana New"/>
-        <family val="1"/>
-      </rPr>
-      <t>(ทำงานอยู่,ลาออก)</t>
-    </r>
-  </si>
-  <si>
-    <t>วันที่ลาออก</t>
-  </si>
-  <si>
-    <t>วันเดือนปีเกิด</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>VCB62162</t>
   </si>
   <si>
-    <t>นางแสงเดือน  เพ็ชรประดิษฐ</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -153,9 +60,6 @@
     <t>VCB62352</t>
   </si>
   <si>
-    <t>นายธนานันท์  รอดแผ้วพาล</t>
-  </si>
-  <si>
     <t>18/09/2560</t>
   </si>
   <si>
@@ -165,9 +69,6 @@
     <t>VCB62353</t>
   </si>
   <si>
-    <t>นางสาวอารดา  วันทนาสินธุ์</t>
-  </si>
-  <si>
     <t>11/06/2561</t>
   </si>
   <si>
@@ -177,89 +78,131 @@
     <t>VCB63240</t>
   </si>
   <si>
-    <t>นายโกมล  เกษพาณิช</t>
+    <t>07/12/2563</t>
+  </si>
+  <si>
+    <t>04/12/2538</t>
+  </si>
+  <si>
+    <t>VCB64022</t>
+  </si>
+  <si>
+    <t>Singtokaew</t>
+  </si>
+  <si>
+    <t>25/01/2564</t>
+  </si>
+  <si>
+    <t>20/03/2539</t>
+  </si>
+  <si>
+    <t>VCB64230</t>
+  </si>
+  <si>
+    <t>091-8560296</t>
+  </si>
+  <si>
+    <t>18/10/2564</t>
+  </si>
+  <si>
+    <t>03/04/2542</t>
+  </si>
+  <si>
+    <t>VCP57133</t>
+  </si>
+  <si>
+    <t>21/04/2557</t>
+  </si>
+  <si>
+    <t>24/12/2532</t>
+  </si>
+  <si>
+    <t>VCB61218</t>
+  </si>
+  <si>
+    <t>14/05/2557</t>
+  </si>
+  <si>
+    <t>06/01/2534</t>
+  </si>
+  <si>
+    <t>เพ็ชรประดิษฐ</t>
+  </si>
+  <si>
+    <t>รอดแผ้วพาล</t>
+  </si>
+  <si>
+    <t>วันทนาสินธุ์</t>
+  </si>
+  <si>
+    <t>เกษพาณิช</t>
+  </si>
+  <si>
+    <t>สิงห์โตแก้ว</t>
+  </si>
+  <si>
+    <t>ปัญญาอุด</t>
+  </si>
+  <si>
+    <t>ภิญโญ</t>
+  </si>
+  <si>
+    <t>ภาพันธ์</t>
   </si>
   <si>
     <t>Gomol</t>
   </si>
   <si>
-    <t>Gaspanich</t>
-  </si>
-  <si>
-    <t>07/12/2563</t>
-  </si>
-  <si>
-    <t>04/12/2538</t>
-  </si>
-  <si>
-    <t>VCB64022</t>
-  </si>
-  <si>
-    <t>นายตรีเกษม  สิงห์โตแก้ว</t>
-  </si>
-  <si>
     <t>Treekasem</t>
   </si>
   <si>
-    <t>Singtokaew</t>
-  </si>
-  <si>
-    <t>25/01/2564</t>
-  </si>
-  <si>
-    <t>20/03/2539</t>
-  </si>
-  <si>
-    <t>VCB64230</t>
-  </si>
-  <si>
-    <t>น.ส.ศิรชา  ปัญญาอุด</t>
-  </si>
-  <si>
     <t>Siracha</t>
   </si>
   <si>
-    <t>Panyaud</t>
-  </si>
-  <si>
-    <t>091-8560296</t>
-  </si>
-  <si>
-    <t>18/10/2564</t>
-  </si>
-  <si>
-    <t>03/04/2542</t>
-  </si>
-  <si>
-    <t>VCP57133</t>
-  </si>
-  <si>
-    <t>นายอาทิตย์  ภาพันธ์</t>
-  </si>
-  <si>
-    <t>21/04/2557</t>
-  </si>
-  <si>
-    <t>24/12/2532</t>
-  </si>
-  <si>
-    <t>VCB61218</t>
-  </si>
-  <si>
-    <t>นางสาววาสนา  ภิญโญ</t>
-  </si>
-  <si>
-    <t>14/05/2557</t>
-  </si>
-  <si>
-    <t>06/01/2534</t>
+    <t>นางแสงเดือน</t>
+  </si>
+  <si>
+    <t>นายธนานันท์</t>
+  </si>
+  <si>
+    <t>นางสาวอารดา</t>
+  </si>
+  <si>
+    <t>นายโกมล</t>
+  </si>
+  <si>
+    <t>นายตรีเกษม</t>
+  </si>
+  <si>
+    <t>น.ส.ศิรชา</t>
+  </si>
+  <si>
+    <t>นายอาทิตย์</t>
+  </si>
+  <si>
+    <t>นางสาววาสนา</t>
+  </si>
+  <si>
+    <t>Punya-ud</t>
+  </si>
+  <si>
+    <t>Arthit</t>
+  </si>
+  <si>
+    <t>papan</t>
+  </si>
+  <si>
+    <t>Wassana</t>
+  </si>
+  <si>
+    <t>Pinyo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,12 +213,6 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
@@ -334,28 +271,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3867,436 +3795,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="14" max="14" width="17.81640625" customWidth="1"/>
+    <col min="2" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="22" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3">
+        <v>88</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="3" t="str">
+        <f>VLOOKUP(A1,[1]Sheet1!C:D,2,0)</f>
+        <v>620156</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <f>VLOOKUP(A2,[1]Sheet1!C:D,2,0)</f>
+        <v>360115</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>78</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f>VLOOKUP(A3,[1]Sheet1!C:D,2,0)</f>
+        <v>610097</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="3">
+        <v>77</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f>VLOOKUP(A4,[1]Sheet1!C:D,2,0)</f>
+        <v>630217</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="L5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>VLOOKUP(A5,[1]Sheet1!C:D,2,0)</f>
+        <v>640018</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="6" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="H6" s="4">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>69</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f>VLOOKUP(A6,[1]Sheet1!C:D,2,0)</f>
+        <v>640230</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="22" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>73</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="4">
+        <v>170133</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="22" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6">
-        <v>88</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="6" t="str">
-        <f>VLOOKUP(A2,[1]Sheet1!C:D,2,0)</f>
-        <v>620156</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
-        <v>80</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="6" t="str">
-        <f>VLOOKUP(A3,[1]Sheet1!C:D,2,0)</f>
-        <v>360115</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="R8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6">
-        <v>78</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="6" t="str">
-        <f>VLOOKUP(A4,[1]Sheet1!C:D,2,0)</f>
-        <v>610097</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6">
-        <v>77</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="6" t="str">
-        <f>VLOOKUP(A5,[1]Sheet1!C:D,2,0)</f>
-        <v>630217</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7">
-        <v>7</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>82</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="6" t="str">
-        <f>VLOOKUP(A6,[1]Sheet1!C:D,2,0)</f>
-        <v>640018</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="7">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4</v>
-      </c>
-      <c r="I7" s="6">
-        <v>69</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="6" t="str">
-        <f>VLOOKUP(A7,[1]Sheet1!C:D,2,0)</f>
-        <v>640230</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.65">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9">
-        <v>73</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7">
-        <v>170133</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="22" x14ac:dyDescent="0.65">
-      <c r="A9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="8">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6">
-        <v>68</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
